--- a/TestCasev1.xlsx
+++ b/TestCasev1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25412"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB670AD4-6578-4DA7-A0ED-EECA34E3CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78940C34-FBB3-496E-B702-523CFABB83BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Proje Adı:</t>
   </si>
@@ -134,6 +134,10 @@
       </rPr>
       <t>&lt;542588&gt;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hata mesajları: "Lütfen geçerli bir e-posta adresi giriniz." , "Şifreniz harf ile rakam içermeli ve en az altı karakter olmalıdır." , "Lütfen geçerli bir telefon numarası giriniz." 
+</t>
   </si>
   <si>
     <t>BAŞARISIZ</t>
@@ -1071,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,8 +1160,11 @@
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="77.25" customHeight="1">
@@ -1168,25 +1175,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="87" customHeight="1">
@@ -1197,25 +1204,25 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" customHeight="1">
@@ -1226,25 +1233,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="74.25" customHeight="1">
@@ -1255,25 +1262,25 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72" customHeight="1">
@@ -1284,22 +1291,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1326,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1">
@@ -1360,118 +1367,118 @@
     </row>
     <row r="20" spans="1:9" ht="90.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="88.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="90" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="104.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9">
